--- a/error/new/size/image_size_myval.xlsx
+++ b/error/new/size/image_size_myval.xlsx
@@ -2329,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/error/new/size/image_size_myval.xlsx
+++ b/error/new/size/image_size_myval.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Classe</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>128x128</t>
+  </si>
+  <si>
+    <t>Side\Classe</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1405,1109 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1"/>
+              <a:t>Impact of training image size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AF$3:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.9501953125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99294532627865961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99328137597420052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96839988509049124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97691597414589104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AG$3:$AG$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.6806640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8760393046107332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93980112872883637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93450158000574546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9689135118497999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9811570247933884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98896404414382344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97334443981674301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AH$3:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.353271484375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19753086419753085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28325718892770763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4783108302212008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48107109879963067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61652892561983474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62869348522605906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AI$3:$AI$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.736083984375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67321743512219701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79387261488847083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59322033898305082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64666051092643895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77685950413223137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77358490566037741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92669720949604328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AJ$3:$AJ$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.918212890625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72234819853867471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82558452029024454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85665038781959202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90981840566328098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99206611570247938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AK$3:$AK$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.993408203125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92416225749559078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93523246439129271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95690893421430623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97937827023699597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99928800284798858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AL$3:$AL$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.6630859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99042579994960944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99516259070142432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97874174087905774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96152662357648511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99801652892561987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B241-41BC-8B64-6093149CFBC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360540744"/>
+        <c:axId val="360539104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360540744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Training image side</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360539104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360539104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360540744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1958,6 +3063,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1991,6 +3612,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A5C01E-BCC8-41A8-8414-A22191887FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2327,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A44"/>
+    <sheetView tabSelected="1" topLeftCell="AD11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,9 +3996,10 @@
     <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -2436,8 +4094,32 @@
         <v>128</v>
       </c>
       <c r="V2" s="8"/>
+      <c r="AE2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -2507,8 +4189,33 @@
         <v>1</v>
       </c>
       <c r="V3" s="8"/>
+      <c r="AE3" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <f t="array" ref="AF3:AL10">TRANSPOSE(N3:U9)</f>
+        <v>0.9501953125</v>
+      </c>
+      <c r="AG3">
+        <v>0.6806640625</v>
+      </c>
+      <c r="AH3">
+        <v>0.353271484375</v>
+      </c>
+      <c r="AI3">
+        <v>0.736083984375</v>
+      </c>
+      <c r="AJ3">
+        <v>0.918212890625</v>
+      </c>
+      <c r="AK3">
+        <v>0.993408203125</v>
+      </c>
+      <c r="AL3">
+        <v>0.6630859375</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -2578,8 +4285,32 @@
         <v>0.97334443981674301</v>
       </c>
       <c r="V4" s="8"/>
+      <c r="AE4" s="8">
+        <v>16</v>
+      </c>
+      <c r="AF4">
+        <v>0.99294532627865961</v>
+      </c>
+      <c r="AG4">
+        <v>0.8760393046107332</v>
+      </c>
+      <c r="AH4">
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="AI4">
+        <v>0.67321743512219701</v>
+      </c>
+      <c r="AJ4">
+        <v>0.72234819853867471</v>
+      </c>
+      <c r="AK4">
+        <v>0.92416225749559078</v>
+      </c>
+      <c r="AL4">
+        <v>0.99042579994960944</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -2649,8 +4380,32 @@
         <v>1</v>
       </c>
       <c r="V5" s="8"/>
+      <c r="AE5" s="8">
+        <v>32</v>
+      </c>
+      <c r="AF5">
+        <v>0.99328137597420052</v>
+      </c>
+      <c r="AG5">
+        <v>0.93980112872883637</v>
+      </c>
+      <c r="AH5">
+        <v>0.28325718892770763</v>
+      </c>
+      <c r="AI5">
+        <v>0.79387261488847083</v>
+      </c>
+      <c r="AJ5">
+        <v>0.82558452029024454</v>
+      </c>
+      <c r="AK5">
+        <v>0.93523246439129271</v>
+      </c>
+      <c r="AL5">
+        <v>0.99516259070142432</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -2720,8 +4475,32 @@
         <v>0.92669720949604328</v>
       </c>
       <c r="V6" s="8"/>
+      <c r="AE6" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF6">
+        <v>0.96839988509049124</v>
+      </c>
+      <c r="AG6">
+        <v>0.93450158000574546</v>
+      </c>
+      <c r="AH6">
+        <v>0.4783108302212008</v>
+      </c>
+      <c r="AI6">
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="AJ6">
+        <v>0.85665038781959202</v>
+      </c>
+      <c r="AK6">
+        <v>0.95690893421430623</v>
+      </c>
+      <c r="AL6">
+        <v>0.97874174087905774</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -2791,8 +4570,32 @@
         <v>1</v>
       </c>
       <c r="V7" s="8"/>
+      <c r="AE7" s="8">
+        <v>64</v>
+      </c>
+      <c r="AF7">
+        <v>0.97691597414589104</v>
+      </c>
+      <c r="AG7">
+        <v>0.9689135118497999</v>
+      </c>
+      <c r="AH7">
+        <v>0.48107109879963067</v>
+      </c>
+      <c r="AI7">
+        <v>0.64666051092643895</v>
+      </c>
+      <c r="AJ7">
+        <v>0.90981840566328098</v>
+      </c>
+      <c r="AK7">
+        <v>0.97937827023699597</v>
+      </c>
+      <c r="AL7">
+        <v>0.96152662357648511</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -2862,8 +4665,32 @@
         <v>1</v>
       </c>
       <c r="V8" s="8"/>
+      <c r="AE8" s="8">
+        <v>80</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0.9811570247933884</v>
+      </c>
+      <c r="AH8">
+        <v>0.61652892561983474</v>
+      </c>
+      <c r="AI8">
+        <v>0.77685950413223137</v>
+      </c>
+      <c r="AJ8">
+        <v>0.99206611570247938</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0.99801652892561987</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="M9" s="8">
         <v>6</v>
       </c>
@@ -2900,8 +4727,32 @@
         <v>1</v>
       </c>
       <c r="V9" s="8"/>
+      <c r="AE9" s="8">
+        <v>96</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0.98896404414382344</v>
+      </c>
+      <c r="AH9">
+        <v>0.62869348522605906</v>
+      </c>
+      <c r="AI9">
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0.99928800284798858</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
@@ -2943,8 +4794,32 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="8"/>
+      <c r="AE10" s="8">
+        <v>128</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0.97334443981674301</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0.92669720949604328</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="2">
         <v>0</v>
@@ -3015,7 +4890,7 @@
       </c>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="2">
         <v>1</v>
@@ -3086,7 +4961,7 @@
       </c>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -3157,7 +5032,7 @@
       </c>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>3</v>
@@ -3228,7 +5103,7 @@
       </c>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="2">
         <v>4</v>
@@ -3264,7 +5139,7 @@
       </c>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="2">
         <v>5</v>

--- a/error/new/size/image_size_myval.xlsx
+++ b/error/new/size/image_size_myval.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Classe</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Side\Classe</t>
+  </si>
+  <si>
+    <t>Side\Class</t>
   </si>
 </sst>
 </file>
@@ -2467,6 +2470,1073 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1"/>
+              <a:t>Impact of training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+              <a:t> images size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Class 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AN$3:$AN$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>95.01953125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.294532627865962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.328137597420053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.839988509049121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.691597414589097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Class 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AO$3:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68.06640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.603930461073318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.980112872883637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.450158000574547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.891351184979996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.115702479338836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.896404414382346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.334443981674298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Class 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AP$3:$AP$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.3271484375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.753086419753085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.325718892770762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.831083022120083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.107109879963069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.652892561983478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.869348522605904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Class 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AQ$3:$AQ$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73.6083984375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.321743512219697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.387261488847088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.322033898305079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.666051092643897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.685950413223139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.358490566037744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.669720949604326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Class 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AR$3:$AR$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>91.8212890625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.234819853867478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.558452029024451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.665038781959197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.981840566328103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.206611570247944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Class 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AS$3:$AS$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.3408203125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.416225749559075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.523246439129267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.690893421430616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.937827023699597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.928800284798854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Class 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tamanho!$AM$3:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamanho!$AT$3:$AT$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>66.30859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.042579994960946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.516259070142439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.874174087905772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.152662357648509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.801652892561989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9B82-42CB-BB31-6B499683F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="290249936"/>
+        <c:axId val="290246656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="290249936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>Training images side</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290246656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290246656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290249936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2547,6 +3617,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3064,6 +4174,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3619,16 +5245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>166116</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>173736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3648,6 +5274,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417394FC-401D-4441-8CF4-BBB29278AC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3984,10 +5646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+    <sheetView tabSelected="1" topLeftCell="AE13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3999,7 +5661,7 @@
     <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -4118,8 +5780,32 @@
       <c r="AL2" s="8">
         <v>6</v>
       </c>
+      <c r="AM2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -4214,8 +5900,39 @@
       <c r="AL3">
         <v>0.6630859375</v>
       </c>
+      <c r="AM3" s="8">
+        <v>8</v>
+      </c>
+      <c r="AN3">
+        <f>AF3*100</f>
+        <v>95.01953125</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AT3" si="1">AG3*100</f>
+        <v>68.06640625</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="1"/>
+        <v>35.3271484375</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>73.6083984375</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>91.8212890625</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>99.3408203125</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="1"/>
+        <v>66.30859375</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -4253,35 +5970,35 @@
         <v>1</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N9" si="1">K3</f>
+        <f t="shared" ref="N4:N9" si="2">K3</f>
         <v>0.6806640625</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O9" si="2">K12</f>
+        <f t="shared" ref="O4:O9" si="3">K12</f>
         <v>0.8760393046107332</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P9" si="3">K21</f>
+        <f t="shared" ref="P4:P9" si="4">K21</f>
         <v>0.93980112872883637</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q9" si="4">K30</f>
+        <f t="shared" ref="Q4:Q9" si="5">K30</f>
         <v>0.93450158000574546</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R9" si="5">K39</f>
+        <f t="shared" ref="R4:R9" si="6">K39</f>
         <v>0.9689135118497999</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S9" si="6">K48</f>
+        <f t="shared" ref="S4:S9" si="7">K48</f>
         <v>0.9811570247933884</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T9" si="7">K57</f>
+        <f t="shared" ref="T4:T9" si="8">K57</f>
         <v>0.98896404414382344</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U9" si="8">K66</f>
+        <f t="shared" ref="U4:U9" si="9">K66</f>
         <v>0.97334443981674301</v>
       </c>
       <c r="V4" s="8"/>
@@ -4309,8 +6026,39 @@
       <c r="AL4">
         <v>0.99042579994960944</v>
       </c>
+      <c r="AM4" s="8">
+        <v>16</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN10" si="10">AF4*100</f>
+        <v>99.294532627865962</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ref="AO4:AO10" si="11">AG4*100</f>
+        <v>87.603930461073318</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AP10" si="12">AH4*100</f>
+        <v>19.753086419753085</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ10" si="13">AI4*100</f>
+        <v>67.321743512219697</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR10" si="14">AJ4*100</f>
+        <v>72.234819853867478</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS10" si="15">AK4*100</f>
+        <v>92.416225749559075</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT10" si="16">AL4*100</f>
+        <v>99.042579994960946</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -4348,35 +6096,35 @@
         <v>2</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.353271484375</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19753086419753085</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28325718892770763</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4783108302212008</v>
       </c>
       <c r="R5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48107109879963067</v>
       </c>
       <c r="S5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.61652892561983474</v>
       </c>
       <c r="T5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.62869348522605906</v>
       </c>
       <c r="U5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V5" s="8"/>
@@ -4404,8 +6152,39 @@
       <c r="AL5">
         <v>0.99516259070142432</v>
       </c>
+      <c r="AM5" s="8">
+        <v>32</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="10"/>
+        <v>99.328137597420053</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="11"/>
+        <v>93.980112872883637</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="12"/>
+        <v>28.325718892770762</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="13"/>
+        <v>79.387261488847088</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="14"/>
+        <v>82.558452029024451</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="15"/>
+        <v>93.523246439129267</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="16"/>
+        <v>99.516259070142439</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -4443,27 +6222,27 @@
         <v>3</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.736083984375</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67321743512219701</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79387261488847083</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59322033898305082</v>
       </c>
       <c r="R6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64666051092643895</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77685950413223137</v>
       </c>
       <c r="T6">
@@ -4471,7 +6250,7 @@
         <v>0.77358490566037741</v>
       </c>
       <c r="U6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92669720949604328</v>
       </c>
       <c r="V6" s="8"/>
@@ -4499,8 +6278,39 @@
       <c r="AL6">
         <v>0.97874174087905774</v>
       </c>
+      <c r="AM6" s="8">
+        <v>48</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="10"/>
+        <v>96.839988509049121</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="11"/>
+        <v>93.450158000574547</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="12"/>
+        <v>47.831083022120083</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="13"/>
+        <v>59.322033898305079</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="14"/>
+        <v>85.665038781959197</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="15"/>
+        <v>95.690893421430616</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="16"/>
+        <v>97.874174087905772</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -4538,35 +6348,35 @@
         <v>4</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.918212890625</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72234819853867471</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82558452029024454</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85665038781959202</v>
       </c>
       <c r="R7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90981840566328098</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99206611570247938</v>
       </c>
       <c r="T7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V7" s="8"/>
@@ -4594,8 +6404,39 @@
       <c r="AL7">
         <v>0.96152662357648511</v>
       </c>
+      <c r="AM7" s="8">
+        <v>64</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="10"/>
+        <v>97.691597414589097</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="11"/>
+        <v>96.891351184979996</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>48.107109879963069</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="13"/>
+        <v>64.666051092643897</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="14"/>
+        <v>90.981840566328103</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="15"/>
+        <v>97.937827023699597</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="16"/>
+        <v>96.152662357648509</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -4633,35 +6474,35 @@
         <v>5</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.993408203125</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92416225749559078</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93523246439129271</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95690893421430623</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97937827023699597</v>
       </c>
       <c r="S8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99928800284798858</v>
       </c>
       <c r="U8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V8" s="8"/>
@@ -4689,41 +6530,72 @@
       <c r="AL8">
         <v>0.99801652892561987</v>
       </c>
+      <c r="AM8" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="11"/>
+        <v>98.115702479338836</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>61.652892561983478</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
+        <v>77.685950413223139</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="14"/>
+        <v>99.206611570247944</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="16"/>
+        <v>99.801652892561989</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="M9" s="8">
         <v>6</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6630859375</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99042579994960944</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99516259070142432</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97874174087905774</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96152662357648511</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99801652892561987</v>
       </c>
       <c r="T9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V9" s="8"/>
@@ -4751,8 +6623,39 @@
       <c r="AL9">
         <v>1</v>
       </c>
+      <c r="AM9" s="8">
+        <v>96</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="11"/>
+        <v>98.896404414382346</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="12"/>
+        <v>62.869348522605904</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
+        <v>77.358490566037744</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="15"/>
+        <v>99.928800284798854</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
@@ -4818,8 +6721,39 @@
       <c r="AL10">
         <v>1</v>
       </c>
+      <c r="AM10" s="8">
+        <v>128</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="11"/>
+        <v>97.334443981674298</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="13"/>
+        <v>92.669720949604326</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="2">
         <v>0</v>
@@ -4865,15 +6799,15 @@
         <v>0.76809559802757088</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:R11" si="9">AVERAGE(P3:P9)</f>
+        <f t="shared" ref="P11:R11" si="17">AVERAGE(P3:P9)</f>
         <v>0.82374169770031092</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.82381909960192057</v>
       </c>
       <c r="R11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.8463263421712176</v>
       </c>
       <c r="S11" s="10">
@@ -4890,7 +6824,7 @@
       </c>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="2">
         <v>1</v>
@@ -4917,7 +6851,7 @@
         <v>488</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" ref="J12:J17" si="10">SUM(C12:I12)</f>
+        <f t="shared" ref="J12:J17" si="18">SUM(C12:I12)</f>
         <v>3969</v>
       </c>
       <c r="K12" s="3">
@@ -4936,23 +6870,23 @@
         <v>0.8760393046107332</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:T12" si="11">MEDIAN(P3:P9)</f>
+        <f t="shared" ref="P12:T12" si="19">MEDIAN(P3:P9)</f>
         <v>0.93523246439129271</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.93450158000574546</v>
       </c>
       <c r="R12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.96152662357648511</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.99206611570247938</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.99928800284798858</v>
       </c>
       <c r="U12" s="1">
@@ -4961,7 +6895,7 @@
       </c>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -4988,7 +6922,7 @@
         <v>1806</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3969</v>
       </c>
       <c r="K13" s="3">
@@ -5007,32 +6941,32 @@
         <v>0.99294532627865961</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:T13" si="12">LARGE(P3:P9,1)</f>
+        <f t="shared" ref="P13:T13" si="20">LARGE(P3:P9,1)</f>
         <v>0.99516259070142432</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.97874174087905774</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.97937827023699597</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="13">LARGE(U3:U9,1)</f>
+        <f t="shared" ref="U13" si="21">LARGE(U3:U9,1)</f>
         <v>1</v>
       </c>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>3</v>
@@ -5059,7 +6993,7 @@
         <v>1284</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3969</v>
       </c>
       <c r="K14" s="3">
@@ -5078,32 +7012,32 @@
         <v>0.19753086419753085</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:T14" si="14">SMALL(P3:P9,1)</f>
+        <f t="shared" ref="P14:T14" si="22">SMALL(P3:P9,1)</f>
         <v>0.28325718892770763</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.4783108302212008</v>
       </c>
       <c r="R14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.48107109879963067</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.61652892561983474</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.62869348522605906</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" ref="U14" si="15">SMALL(U3:U9,1)</f>
+        <f t="shared" ref="U14" si="23">SMALL(U3:U9,1)</f>
         <v>0.92669720949604328</v>
       </c>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="2">
         <v>4</v>
@@ -5130,7 +7064,7 @@
         <v>1001</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3969</v>
       </c>
       <c r="K15" s="3">
@@ -5139,7 +7073,7 @@
       </c>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="2">
         <v>5</v>
@@ -5166,7 +7100,7 @@
         <v>278</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3969</v>
       </c>
       <c r="K16" s="3">
@@ -5202,7 +7136,7 @@
         <v>3931</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3969</v>
       </c>
       <c r="K17" s="3">
@@ -5313,7 +7247,7 @@
         <v>220</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" ref="J21:J26" si="16">SUM(C21:I21)</f>
+        <f t="shared" ref="J21:J26" si="24">SUM(C21:I21)</f>
         <v>3721</v>
       </c>
       <c r="K21" s="3">
@@ -5349,7 +7283,7 @@
         <v>174</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3721</v>
       </c>
       <c r="K22" s="3">
@@ -5385,7 +7319,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3721</v>
       </c>
       <c r="K23" s="3">
@@ -5423,7 +7357,7 @@
         <v>228</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3721</v>
       </c>
       <c r="K24" s="3">
@@ -5459,7 +7393,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3721</v>
       </c>
       <c r="K25" s="3">
@@ -5495,7 +7429,7 @@
         <v>3703</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3721</v>
       </c>
       <c r="K26" s="3">
@@ -5600,7 +7534,7 @@
         <v>228</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" ref="J30:J35" si="17">SUM(C30:I30)</f>
+        <f t="shared" ref="J30:J35" si="25">SUM(C30:I30)</f>
         <v>3481</v>
       </c>
       <c r="K30" s="3">
@@ -5635,7 +7569,7 @@
         <v>1261</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3481</v>
       </c>
       <c r="K31" s="3">
@@ -5670,7 +7604,7 @@
         <v>904</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3481</v>
       </c>
       <c r="K32" s="3">
@@ -5707,7 +7641,7 @@
         <v>499</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3481</v>
       </c>
       <c r="K33" s="3">
@@ -5742,7 +7676,7 @@
         <v>148</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3481</v>
       </c>
       <c r="K34" s="3">
@@ -5777,7 +7711,7 @@
         <v>3407</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3481</v>
       </c>
       <c r="K35" s="3">
@@ -5882,7 +7816,7 @@
         <v>101</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" ref="J39:J44" si="18">SUM(C39:I39)</f>
+        <f t="shared" ref="J39:J44" si="26">SUM(C39:I39)</f>
         <v>3249</v>
       </c>
       <c r="K39" s="3">
@@ -5917,7 +7851,7 @@
         <v>1277</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3249</v>
       </c>
       <c r="K40" s="3">
@@ -5952,7 +7886,7 @@
         <v>1054</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3249</v>
       </c>
       <c r="K41" s="3">
@@ -5989,7 +7923,7 @@
         <v>293</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3249</v>
       </c>
       <c r="K42" s="3">
@@ -6024,7 +7958,7 @@
         <v>66</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3249</v>
       </c>
       <c r="K43" s="3">
@@ -6059,7 +7993,7 @@
         <v>3124</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3249</v>
       </c>
       <c r="K44" s="3">
@@ -6164,7 +8098,7 @@
         <v>57</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48:J53" si="19">SUM(C48:I48)</f>
+        <f t="shared" ref="J48:J53" si="27">SUM(C48:I48)</f>
         <v>3025</v>
       </c>
       <c r="K48" s="3">
@@ -6199,7 +8133,7 @@
         <v>1068</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3025</v>
       </c>
       <c r="K49" s="3">
@@ -6234,7 +8168,7 @@
         <v>672</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3025</v>
       </c>
       <c r="K50" s="3">
@@ -6271,7 +8205,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3025</v>
       </c>
       <c r="K51" s="3">
@@ -6306,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3025</v>
       </c>
       <c r="K52" s="3">
@@ -6341,7 +8275,7 @@
         <v>3019</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3025</v>
       </c>
       <c r="K53" s="3">
@@ -6446,7 +8380,7 @@
         <v>31</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" ref="J57:J62" si="20">SUM(C57:I57)</f>
+        <f t="shared" ref="J57:J62" si="28">SUM(C57:I57)</f>
         <v>2809</v>
       </c>
       <c r="K57" s="3">
@@ -6481,7 +8415,7 @@
         <v>978</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2809</v>
       </c>
       <c r="K58" s="3">
@@ -6516,7 +8450,7 @@
         <v>636</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2809</v>
       </c>
       <c r="K59" s="3">
@@ -6553,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2809</v>
       </c>
       <c r="K60" s="3">
@@ -6588,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2809</v>
       </c>
       <c r="K61" s="3">
@@ -6623,7 +8557,7 @@
         <v>2809</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2809</v>
       </c>
       <c r="K62" s="3">
@@ -6728,7 +8662,7 @@
         <v>64</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" ref="J66:J71" si="21">SUM(C66:I66)</f>
+        <f t="shared" ref="J66:J71" si="29">SUM(C66:I66)</f>
         <v>2401</v>
       </c>
       <c r="K66" s="3">
@@ -6763,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2401</v>
       </c>
       <c r="K67" s="3">
@@ -6798,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2401</v>
       </c>
       <c r="K68" s="3">
@@ -6835,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2401</v>
       </c>
       <c r="K69" s="3">
@@ -6870,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2401</v>
       </c>
       <c r="K70" s="3">
@@ -6905,7 +8839,7 @@
         <v>2401</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2401</v>
       </c>
       <c r="K71" s="3">
